--- a/raw_data/20200818_saline/20200818_Sensor1_Test_65.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_65.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1EBA51-F9AA-4FE0-B3D4-FEFE945C02EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>57789.003567</v>
       </c>
       <c r="B2" s="1">
-        <v>16.052501</v>
+        <v>16.052500999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>901.889000</v>
+        <v>901.88900000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.214000</v>
+        <v>-198.214</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>57799.427487</v>
+        <v>57799.427487000001</v>
       </c>
       <c r="G2" s="1">
-        <v>16.055397</v>
+        <v>16.055396999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>919.143000</v>
+        <v>919.14300000000003</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.335000</v>
+        <v>-167.33500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>57809.569682</v>
+        <v>57809.569682000001</v>
       </c>
       <c r="L2" s="1">
         <v>16.058214</v>
       </c>
       <c r="M2" s="1">
-        <v>941.047000</v>
+        <v>941.04700000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.713000</v>
+        <v>-118.71299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>57820.067540</v>
+        <v>57820.067539999996</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.061130</v>
+        <v>16.061129999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>947.610000</v>
+        <v>947.61</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.595000</v>
+        <v>-102.595</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>57830.348616</v>
+        <v>57830.348616000003</v>
       </c>
       <c r="V2" s="1">
         <v>16.063986</v>
       </c>
       <c r="W2" s="1">
-        <v>953.920000</v>
+        <v>953.92</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.839300</v>
+        <v>-87.839299999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>57840.781434</v>
+        <v>57840.781433999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.066884</v>
+        <v>16.066884000000002</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.012000</v>
+        <v>961.01199999999994</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.448500</v>
+        <v>-76.448499999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>57851.218252</v>
+        <v>57851.218251999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.069783</v>
+        <v>16.069783000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.795000</v>
+        <v>965.79499999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.420600</v>
+        <v>-74.420599999999993</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>57862.029053</v>
+        <v>57862.029052999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.072786</v>
+        <v>16.072786000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.862000</v>
+        <v>972.86199999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.304800</v>
+        <v>-79.3048</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>57872.605744</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.075724</v>
+        <v>16.075724000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.938000</v>
+        <v>980.93799999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.007600</v>
+        <v>-91.007599999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>57883.862944</v>
@@ -616,58 +1032,58 @@
         <v>16.078851</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.747000</v>
+        <v>990.74699999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.781000</v>
+        <v>-108.78100000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>57894.982285</v>
+        <v>57894.982284999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.081940</v>
+        <v>16.081939999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.003000</v>
+        <v>999.00300000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.520000</v>
+        <v>-124.52</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>57905.990004</v>
+        <v>57905.990003999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>16.084997</v>
+        <v>16.084997000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.780000</v>
+        <v>-196.78</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>57917.391507</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.088164</v>
+        <v>16.088163999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.530000</v>
+        <v>1105.53</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.254000</v>
+        <v>-313.25400000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>57928.864964</v>
@@ -676,165 +1092,165 @@
         <v>16.091351</v>
       </c>
       <c r="BP2" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-495.440000</v>
+        <v>-495.44</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>57939.211511</v>
+        <v>57939.211511000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.094225</v>
+        <v>16.094225000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.780000</v>
+        <v>1337.78</v>
       </c>
       <c r="BV2" s="1">
-        <v>-694.508000</v>
+        <v>-694.50800000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>57949.610633</v>
+        <v>57949.610632999997</v>
       </c>
       <c r="BY2" s="1">
-        <v>16.097114</v>
+        <v>16.097114000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1474.430000</v>
+        <v>1474.43</v>
       </c>
       <c r="CA2" s="1">
-        <v>-905.081000</v>
+        <v>-905.08100000000002</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>57960.764698</v>
+        <v>57960.764697999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.100212</v>
+        <v>16.100211999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1830.240000</v>
+        <v>1830.24</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1403.390000</v>
+        <v>-1403.39</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>57789.393950</v>
+        <v>57789.393949999998</v>
       </c>
       <c r="B3" s="1">
         <v>16.052609</v>
       </c>
       <c r="C3" s="1">
-        <v>901.833000</v>
+        <v>901.83299999999997</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.113000</v>
+        <v>-198.113</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>57799.852591</v>
+        <v>57799.852591000003</v>
       </c>
       <c r="G3" s="1">
         <v>16.055515</v>
       </c>
       <c r="H3" s="1">
-        <v>918.678000</v>
+        <v>918.678</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.971000</v>
+        <v>-166.971</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>57810.005665</v>
+        <v>57810.005664999997</v>
       </c>
       <c r="L3" s="1">
         <v>16.058335</v>
       </c>
       <c r="M3" s="1">
-        <v>941.160000</v>
+        <v>941.16</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.565000</v>
+        <v>-118.565</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>57820.179110</v>
+        <v>57820.179109999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.061161</v>
+        <v>16.061160999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>947.621000</v>
+        <v>947.62099999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.611000</v>
+        <v>-102.611</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>57830.716118</v>
+        <v>57830.716117999997</v>
       </c>
       <c r="V3" s="1">
-        <v>16.064088</v>
+        <v>16.064088000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>953.982000</v>
+        <v>953.98199999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.842600</v>
+        <v>-87.842600000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>57841.144506</v>
+        <v>57841.144505999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.066985</v>
+        <v>16.066984999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.995000</v>
+        <v>960.995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.477700</v>
+        <v>-76.477699999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>57851.599179</v>
+        <v>57851.599178999997</v>
       </c>
       <c r="AF3" s="1">
         <v>16.069889</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.753000</v>
+        <v>965.75300000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.503300</v>
+        <v>-74.503299999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>57862.759199</v>
@@ -843,1041 +1259,1041 @@
         <v>16.072989</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.859000</v>
+        <v>972.85900000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.293400</v>
+        <v>-79.293400000000005</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>57873.352719</v>
+        <v>57873.352719000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.075931</v>
+        <v>16.075931000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.913000</v>
+        <v>980.91300000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.985600</v>
+        <v>-90.985600000000005</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>57884.257793</v>
+        <v>57884.257792999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.078960</v>
+        <v>16.078959999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.753000</v>
+        <v>990.75300000000004</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.810000</v>
+        <v>-108.81</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>57895.397410</v>
+        <v>57895.397409999998</v>
       </c>
       <c r="AZ3" s="1">
         <v>16.082055</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.010000</v>
+        <v>999.01</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.508000</v>
+        <v>-124.508</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>57906.356550</v>
+        <v>57906.356549999997</v>
       </c>
       <c r="BE3" s="1">
         <v>16.085099</v>
       </c>
       <c r="BF3" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.757000</v>
+        <v>-196.75700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>57918.084418</v>
+        <v>57918.084417999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.088357</v>
+        <v>16.088356999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.540000</v>
+        <v>1105.54</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.273000</v>
+        <v>-313.27300000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>57928.992436</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.091387</v>
+        <v>16.091387000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-495.422000</v>
+        <v>-495.42200000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>57939.361799</v>
+        <v>57939.361798999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.094267</v>
+        <v>16.094266999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.790000</v>
+        <v>1337.79</v>
       </c>
       <c r="BV3" s="1">
-        <v>-694.462000</v>
+        <v>-694.46199999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>57950.097736</v>
+        <v>57950.097736000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.097249</v>
+        <v>16.097249000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1474.400000</v>
+        <v>1474.4</v>
       </c>
       <c r="CA3" s="1">
-        <v>-905.125000</v>
+        <v>-905.125</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>57961.357386</v>
+        <v>57961.357386000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.100377</v>
+        <v>16.100377000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1828.890000</v>
+        <v>1828.89</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1404.430000</v>
+        <v>-1404.43</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>57789.835356</v>
+        <v>57789.835356000003</v>
       </c>
       <c r="B4" s="1">
-        <v>16.052732</v>
+        <v>16.052731999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>901.726000</v>
+        <v>901.726</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.155000</v>
+        <v>-198.155</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>57800.159614</v>
+        <v>57800.159613999997</v>
       </c>
       <c r="G4" s="1">
-        <v>16.055600</v>
+        <v>16.055599999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>919.066000</v>
+        <v>919.06600000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.584000</v>
+        <v>-167.584</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>57810.336001</v>
+        <v>57810.336001000003</v>
       </c>
       <c r="L4" s="1">
-        <v>16.058427</v>
+        <v>16.058426999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>941.199000</v>
+        <v>941.19899999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.703000</v>
+        <v>-118.703</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>57820.518869</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.061255</v>
+        <v>16.061254999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>947.626000</v>
+        <v>947.62599999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.634000</v>
+        <v>-102.634</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>57831.057861</v>
+        <v>57831.057861000001</v>
       </c>
       <c r="V4" s="1">
         <v>16.064183</v>
       </c>
       <c r="W4" s="1">
-        <v>954.011000</v>
+        <v>954.01099999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.712700</v>
+        <v>-87.712699999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>57841.492200</v>
+        <v>57841.492200000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.067081</v>
+        <v>16.067081000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.000000</v>
+        <v>961</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.478100</v>
+        <v>-76.478099999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>57852.284649</v>
+        <v>57852.284649000001</v>
       </c>
       <c r="AF4" s="1">
         <v>16.070079</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.668000</v>
+        <v>965.66800000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.340200</v>
+        <v>-74.340199999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>57863.109837</v>
+        <v>57863.109837000004</v>
       </c>
       <c r="AK4" s="1">
         <v>16.073086</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.873000</v>
+        <v>972.87300000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.267300</v>
+        <v>-79.267300000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>57873.715825</v>
+        <v>57873.715824999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.076032</v>
+        <v>16.076032000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.911000</v>
+        <v>980.91099999999994</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.975300</v>
+        <v>-90.975300000000004</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>57884.621326</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.079061</v>
+        <v>16.079060999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.721000</v>
+        <v>990.721</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.810000</v>
+        <v>-108.81</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>57896.069026</v>
+        <v>57896.069025999997</v>
       </c>
       <c r="AZ4" s="1">
         <v>16.082241</v>
       </c>
       <c r="BA4" s="1">
-        <v>998.995000</v>
+        <v>998.995</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.535000</v>
+        <v>-124.535</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>57907.027601</v>
+        <v>57907.027601000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.085285</v>
+        <v>16.085284999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1037.950000</v>
+        <v>1037.95</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.747000</v>
+        <v>-196.74700000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>57918.560114</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.088489</v>
+        <v>16.088488999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.530000</v>
+        <v>1105.53</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.282000</v>
+        <v>-313.28199999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>57929.405107</v>
+        <v>57929.405106999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.091501</v>
+        <v>16.091501000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-495.483000</v>
+        <v>-495.483</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>57939.772521</v>
+        <v>57939.772520999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.094381</v>
+        <v>16.094380999999998</v>
       </c>
       <c r="BU4" s="1">
-        <v>1337.740000</v>
+        <v>1337.74</v>
       </c>
       <c r="BV4" s="1">
-        <v>-694.536000</v>
+        <v>-694.53599999999994</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>57950.545095</v>
+        <v>57950.545095000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.097374</v>
+        <v>16.097373999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1474.420000</v>
+        <v>1474.42</v>
       </c>
       <c r="CA4" s="1">
-        <v>-905.149000</v>
+        <v>-905.149</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>57961.897529</v>
+        <v>57961.897529000002</v>
       </c>
       <c r="CD4" s="1">
         <v>16.100527</v>
       </c>
       <c r="CE4" s="1">
-        <v>1830.340000</v>
+        <v>1830.34</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1404.670000</v>
+        <v>-1404.67</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>57790.103196</v>
+        <v>57790.103195999996</v>
       </c>
       <c r="B5" s="1">
         <v>16.052806</v>
       </c>
       <c r="C5" s="1">
-        <v>901.842000</v>
+        <v>901.84199999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.055000</v>
+        <v>-198.05500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>57800.505791</v>
+        <v>57800.505791000003</v>
       </c>
       <c r="G5" s="1">
-        <v>16.055696</v>
+        <v>16.055696000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>918.910000</v>
+        <v>918.91</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.050000</v>
+        <v>-167.05</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>57810.676784</v>
+        <v>57810.676784000003</v>
       </c>
       <c r="L5" s="1">
-        <v>16.058521</v>
+        <v>16.058520999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>941.130000</v>
+        <v>941.13</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.721000</v>
+        <v>-118.721</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>57820.866103</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.061352</v>
+        <v>16.061351999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>947.550000</v>
+        <v>947.55</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.620000</v>
+        <v>-102.62</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>57831.743829</v>
+        <v>57831.743828999999</v>
       </c>
       <c r="V5" s="1">
         <v>16.064373</v>
       </c>
       <c r="W5" s="1">
-        <v>954.058000</v>
+        <v>954.05799999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.819700</v>
+        <v>-87.819699999999997</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>57842.193609</v>
+        <v>57842.193609000002</v>
       </c>
       <c r="AA5" s="1">
         <v>16.067276</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.069000</v>
+        <v>961.06899999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.449200</v>
+        <v>-76.449200000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>57852.628905</v>
+        <v>57852.628904999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.070175</v>
+        <v>16.070174999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.663000</v>
+        <v>965.66300000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.449000</v>
+        <v>-74.448999999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>57863.460508</v>
+        <v>57863.460507999996</v>
       </c>
       <c r="AK5" s="1">
         <v>16.073183</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.857000</v>
+        <v>972.85699999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.287800</v>
+        <v>-79.287800000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>57874.075918</v>
+        <v>57874.075918000002</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.076132</v>
+        <v>16.076132000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.917000</v>
+        <v>980.91700000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.987400</v>
+        <v>-90.987399999999994</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>57885.304814</v>
+        <v>57885.304814000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>16.079251</v>
+        <v>16.079250999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.735000</v>
+        <v>990.73500000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.810000</v>
+        <v>-108.81</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>57896.478688</v>
+        <v>57896.478688000003</v>
       </c>
       <c r="AZ5" s="1">
         <v>16.082355</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.005000</v>
+        <v>999.005</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.539000</v>
+        <v>-124.539</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>57907.471521</v>
+        <v>57907.471520999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.085409</v>
+        <v>16.085408999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.761000</v>
+        <v>-196.761</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>57918.937569</v>
+        <v>57918.937569000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.088594</v>
+        <v>16.088594000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.540000</v>
+        <v>1105.54</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.302000</v>
+        <v>-313.30200000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>57929.798470</v>
+        <v>57929.798470000002</v>
       </c>
       <c r="BO5" s="1">
         <v>16.091611</v>
       </c>
       <c r="BP5" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-495.482000</v>
+        <v>-495.48200000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>57940.208471</v>
+        <v>57940.208470999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.094502</v>
+        <v>16.094501999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.780000</v>
+        <v>1337.78</v>
       </c>
       <c r="BV5" s="1">
-        <v>-694.383000</v>
+        <v>-694.38300000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>57951.000472</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.097500</v>
+        <v>16.0975</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1474.440000</v>
+        <v>1474.44</v>
       </c>
       <c r="CA5" s="1">
-        <v>-905.161000</v>
+        <v>-905.16099999999994</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>57962.438664</v>
+        <v>57962.438664000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.100677</v>
+        <v>16.100677000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1829.410000</v>
+        <v>1829.41</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1403.400000</v>
+        <v>-1403.4</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>57790.444443</v>
       </c>
       <c r="B6" s="1">
-        <v>16.052901</v>
+        <v>16.052900999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>901.786000</v>
+        <v>901.78599999999994</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.148000</v>
+        <v>-198.148</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>57800.852493</v>
+        <v>57800.852492999999</v>
       </c>
       <c r="G6" s="1">
         <v>16.055792</v>
       </c>
       <c r="H6" s="1">
-        <v>919.100000</v>
+        <v>919.1</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.320000</v>
+        <v>-167.32</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>57811.372176</v>
+        <v>57811.372175999997</v>
       </c>
       <c r="L6" s="1">
-        <v>16.058714</v>
+        <v>16.058713999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>941.168000</v>
+        <v>941.16800000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.676000</v>
+        <v>-118.676</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>57821.563940</v>
+        <v>57821.56394</v>
       </c>
       <c r="Q6" s="1">
         <v>16.061546</v>
       </c>
       <c r="R6" s="1">
-        <v>947.577000</v>
+        <v>947.577</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.609000</v>
+        <v>-102.60899999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>57832.094501</v>
       </c>
       <c r="V6" s="1">
-        <v>16.064471</v>
+        <v>16.064471000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.882000</v>
+        <v>953.88199999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.708900</v>
+        <v>-87.7089</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>57842.538263</v>
+        <v>57842.538263000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.067372</v>
+        <v>16.067371999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.044000</v>
+        <v>961.04399999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.457200</v>
+        <v>-76.4572</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>57852.973098</v>
+        <v>57852.973098000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>16.070270</v>
+        <v>16.070270000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.672000</v>
+        <v>965.67200000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.305300</v>
+        <v>-74.305300000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>57864.116257</v>
+        <v>57864.116257000001</v>
       </c>
       <c r="AK6" s="1">
         <v>16.073366</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.857000</v>
+        <v>972.85699999999997</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.293800</v>
+        <v>-79.293800000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>57874.748956</v>
+        <v>57874.748956000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.076319</v>
+        <v>16.076319000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.922000</v>
+        <v>980.92200000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.972800</v>
+        <v>-90.972800000000007</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>57885.712527</v>
+        <v>57885.712527000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.079365</v>
+        <v>16.079364999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.733000</v>
+        <v>990.73299999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.807000</v>
+        <v>-108.807</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>57896.851223</v>
+        <v>57896.851222999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>16.082459</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.026000</v>
+        <v>999.02599999999995</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.535000</v>
+        <v>-124.535</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>57907.828641</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.085508</v>
+        <v>16.085508000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.739000</v>
+        <v>-196.739</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>57919.317473</v>
+        <v>57919.317473000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.088699</v>
+        <v>16.088698999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.510000</v>
+        <v>1105.51</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.297000</v>
+        <v>-313.29700000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>57930.241859</v>
+        <v>57930.241859000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.091734</v>
+        <v>16.091733999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-495.497000</v>
+        <v>-495.49700000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>57940.634037</v>
+        <v>57940.634037000003</v>
       </c>
       <c r="BT6" s="1">
         <v>16.094621</v>
       </c>
       <c r="BU6" s="1">
-        <v>1337.780000</v>
+        <v>1337.78</v>
       </c>
       <c r="BV6" s="1">
-        <v>-694.452000</v>
+        <v>-694.452</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>57951.450464</v>
+        <v>57951.450464000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.097625</v>
+        <v>16.097625000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1474.400000</v>
+        <v>1474.4</v>
       </c>
       <c r="CA6" s="1">
-        <v>-905.140000</v>
+        <v>-905.14</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>57962.976359</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.100827</v>
+        <v>16.100826999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1829.470000</v>
+        <v>1829.47</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1405.460000</v>
+        <v>-1405.46</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>57790.787179</v>
+        <v>57790.787178999999</v>
       </c>
       <c r="B7" s="1">
         <v>16.052996</v>
       </c>
       <c r="C7" s="1">
-        <v>901.728000</v>
+        <v>901.72799999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.183000</v>
+        <v>-198.18299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>57801.537469</v>
+        <v>57801.537469000003</v>
       </c>
       <c r="G7" s="1">
-        <v>16.055983</v>
+        <v>16.055983000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>918.718000</v>
+        <v>918.71799999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.664000</v>
+        <v>-167.66399999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>57811.714879</v>
+        <v>57811.714878999999</v>
       </c>
       <c r="L7" s="1">
-        <v>16.058810</v>
+        <v>16.058810000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>941.118000</v>
+        <v>941.11800000000005</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.689000</v>
+        <v>-118.68899999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>57821.911139</v>
+        <v>57821.911139000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.061642</v>
+        <v>16.061641999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>947.630000</v>
+        <v>947.63</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.579000</v>
+        <v>-102.57899999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>57832.437732</v>
+        <v>57832.437731999999</v>
       </c>
       <c r="V7" s="1">
-        <v>16.064566</v>
+        <v>16.064565999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>953.967000</v>
+        <v>953.96699999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.806100</v>
+        <v>-87.806100000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>57842.887447</v>
+        <v>57842.887447000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.067469</v>
+        <v>16.067468999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.058000</v>
+        <v>961.05799999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.453500</v>
+        <v>-76.453500000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>57853.639721</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.070455</v>
+        <v>16.070454999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.705000</v>
+        <v>965.70500000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.394000</v>
+        <v>-74.394000000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>57864.503628</v>
+        <v>57864.503627999999</v>
       </c>
       <c r="AK7" s="1">
         <v>16.073473</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.864000</v>
+        <v>972.86400000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.266000</v>
+        <v>-79.266000000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>57875.155713</v>
@@ -1886,2206 +2302,2206 @@
         <v>16.076432</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.930000</v>
+        <v>980.93</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.996100</v>
+        <v>-90.996099999999998</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>57886.099902</v>
+        <v>57886.099902000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.079472</v>
+        <v>16.079471999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.742000</v>
+        <v>990.74199999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.821000</v>
+        <v>-108.821</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>57897.233141</v>
+        <v>57897.233140999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.082565</v>
+        <v>16.082564999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>998.989000</v>
+        <v>998.98900000000003</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.518000</v>
+        <v>-124.518</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>57908.192208</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.085609</v>
+        <v>16.085609000000002</v>
       </c>
       <c r="BF7" s="1">
-        <v>1037.930000</v>
+        <v>1037.93</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.754000</v>
+        <v>-196.75399999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>57919.736593</v>
+        <v>57919.736593000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.088816</v>
+        <v>16.088816000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.520000</v>
+        <v>1105.52</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.278000</v>
+        <v>-313.27800000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>57930.617826</v>
+        <v>57930.617826000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.091838</v>
+        <v>16.091837999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-495.475000</v>
+        <v>-495.47500000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>57941.042244</v>
+        <v>57941.042243999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.094734</v>
+        <v>16.094733999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1337.710000</v>
+        <v>1337.71</v>
       </c>
       <c r="BV7" s="1">
-        <v>-694.468000</v>
+        <v>-694.46799999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>57951.906643</v>
+        <v>57951.906643000002</v>
       </c>
       <c r="BY7" s="1">
         <v>16.097752</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1474.470000</v>
+        <v>1474.47</v>
       </c>
       <c r="CA7" s="1">
-        <v>-905.187000</v>
+        <v>-905.18700000000001</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>57963.515870</v>
+        <v>57963.515870000003</v>
       </c>
       <c r="CD7" s="1">
         <v>16.100977</v>
       </c>
       <c r="CE7" s="1">
-        <v>1830.020000</v>
+        <v>1830.02</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1403.400000</v>
+        <v>-1403.4</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>57791.472155</v>
+        <v>57791.472155000003</v>
       </c>
       <c r="B8" s="1">
-        <v>16.053187</v>
+        <v>16.053187000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>901.821000</v>
+        <v>901.82100000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.264000</v>
+        <v>-198.26400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>57801.884172</v>
+        <v>57801.884171999998</v>
       </c>
       <c r="G8" s="1">
         <v>16.056079</v>
       </c>
       <c r="H8" s="1">
-        <v>919.327000</v>
+        <v>919.327</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.797000</v>
+        <v>-167.797</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>57812.062848</v>
+        <v>57812.062848000001</v>
       </c>
       <c r="L8" s="1">
         <v>16.058906</v>
       </c>
       <c r="M8" s="1">
-        <v>941.131000</v>
+        <v>941.13099999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.700000</v>
+        <v>-118.7</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>57822.257880</v>
+        <v>57822.257879999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.061738</v>
+        <v>16.061737999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>947.656000</v>
+        <v>947.65599999999995</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.585000</v>
+        <v>-102.58499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>57833.097413</v>
+        <v>57833.097413000003</v>
       </c>
       <c r="V8" s="1">
-        <v>16.064749</v>
+        <v>16.064748999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>954.050000</v>
+        <v>954.05</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.802700</v>
+        <v>-87.802700000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>57843.343337</v>
+        <v>57843.343336999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.067595</v>
+        <v>16.067595000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.022000</v>
+        <v>961.02200000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.492100</v>
+        <v>-76.492099999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>57854.007257</v>
+        <v>57854.007256999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.070558</v>
+        <v>16.070557999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.759000</v>
+        <v>965.75900000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.402600</v>
+        <v>-74.402600000000007</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>57864.855257</v>
+        <v>57864.855257000003</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.073571</v>
+        <v>16.073571000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.869000</v>
+        <v>972.86900000000003</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.249100</v>
+        <v>-79.249099999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>57875.538587</v>
+        <v>57875.538587000003</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.076538</v>
+        <v>16.076537999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.929000</v>
+        <v>980.92899999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.981000</v>
+        <v>-90.980999999999995</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>57886.464956</v>
+        <v>57886.464956000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.079574</v>
+        <v>16.079574000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.730000</v>
+        <v>990.73</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.818000</v>
+        <v>-108.818</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>57897.659663</v>
+        <v>57897.659662999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.082683</v>
+        <v>16.082682999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.008000</v>
+        <v>999.00800000000004</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.526000</v>
+        <v>-124.526</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>57908.911939</v>
+        <v>57908.911938999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>16.085809</v>
+        <v>16.085809000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.758000</v>
+        <v>-196.75800000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>57920.083297</v>
+        <v>57920.083296999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.088912</v>
+        <v>16.088912000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.500000</v>
+        <v>1105.5</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.262000</v>
+        <v>-313.262</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>57931.038959</v>
+        <v>57931.038958999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.091955</v>
+        <v>16.091954999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-495.524000</v>
+        <v>-495.524</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>57941.471781</v>
       </c>
       <c r="BT8" s="1">
-        <v>16.094853</v>
+        <v>16.094853000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1337.750000</v>
+        <v>1337.75</v>
       </c>
       <c r="BV8" s="1">
-        <v>-694.393000</v>
+        <v>-694.39300000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>57952.351525</v>
+        <v>57952.351524999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.097875</v>
+        <v>16.097874999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1474.510000</v>
+        <v>1474.51</v>
       </c>
       <c r="CA8" s="1">
-        <v>-905.160000</v>
+        <v>-905.16</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>57964.055152</v>
+        <v>57964.055152000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.101126</v>
+        <v>16.101126000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1828.880000</v>
+        <v>1828.88</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1404.690000</v>
+        <v>-1404.69</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>57791.813897</v>
       </c>
       <c r="B9" s="1">
-        <v>16.053282</v>
+        <v>16.053281999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>901.754000</v>
+        <v>901.75400000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.095000</v>
+        <v>-198.095</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>57802.232399</v>
       </c>
       <c r="G9" s="1">
-        <v>16.056176</v>
+        <v>16.056176000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>918.581000</v>
+        <v>918.58100000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.189000</v>
+        <v>-167.18899999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>57812.709855</v>
+        <v>57812.709855000001</v>
       </c>
       <c r="L9" s="1">
-        <v>16.059086</v>
+        <v>16.059086000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>941.160000</v>
+        <v>941.16</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.504000</v>
+        <v>-118.504</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>57822.926485</v>
+        <v>57822.926485000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.061924</v>
+        <v>16.061924000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>947.601000</v>
+        <v>947.601</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.633000</v>
+        <v>-102.633</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>57833.467426</v>
+        <v>57833.467426000003</v>
       </c>
       <c r="V9" s="1">
-        <v>16.064852</v>
+        <v>16.064851999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>953.964000</v>
+        <v>953.96400000000006</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.761600</v>
+        <v>-87.761600000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>57843.590277</v>
+        <v>57843.590277000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.067664</v>
+        <v>16.067664000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.035000</v>
+        <v>961.03499999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.477400</v>
+        <v>-76.477400000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>57854.355983</v>
+        <v>57854.355983000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.070654</v>
+        <v>16.070654000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.713000</v>
+        <v>965.71299999999997</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.394800</v>
+        <v>-74.394800000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>57865.201498</v>
+        <v>57865.201498000002</v>
       </c>
       <c r="AK9" s="1">
         <v>16.073667</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.874000</v>
+        <v>972.87400000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.259400</v>
+        <v>-79.259399999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>57876.122874</v>
+        <v>57876.122874000001</v>
       </c>
       <c r="AP9" s="1">
         <v>16.076701</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.900000</v>
+        <v>980.9</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.969200</v>
+        <v>-90.969200000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>57886.879152</v>
+        <v>57886.879152000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>16.079689</v>
+        <v>16.079688999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.722000</v>
+        <v>990.72199999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.782000</v>
+        <v>-108.782</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>57897.952834</v>
+        <v>57897.952834000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.082765</v>
+        <v>16.082764999999998</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.013000</v>
+        <v>999.01300000000003</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.502000</v>
+        <v>-124.502</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>57909.297326</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.085916</v>
+        <v>16.085916000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1037.950000</v>
+        <v>1037.95</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.761000</v>
+        <v>-196.761</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>57920.459759</v>
+        <v>57920.459758999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.089017</v>
+        <v>16.089016999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.530000</v>
+        <v>1105.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.283000</v>
+        <v>-313.28300000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>57931.431266</v>
       </c>
       <c r="BO9" s="1">
-        <v>16.092064</v>
+        <v>16.092064000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-495.501000</v>
+        <v>-495.50099999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>57941.906275</v>
+        <v>57941.906275000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.094974</v>
+        <v>16.094974000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1337.610000</v>
+        <v>1337.61</v>
       </c>
       <c r="BV9" s="1">
-        <v>-694.390000</v>
+        <v>-694.39</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>57952.811845</v>
+        <v>57952.811844999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.098003</v>
+        <v>16.098002999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1474.510000</v>
+        <v>1474.51</v>
       </c>
       <c r="CA9" s="1">
-        <v>-905.117000</v>
+        <v>-905.11699999999996</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>57964.599239</v>
+        <v>57964.599239000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.101278</v>
+        <v>16.101278000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1830.250000</v>
+        <v>1830.25</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1404.740000</v>
+        <v>-1404.74</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>57792.157626</v>
       </c>
       <c r="B10" s="1">
-        <v>16.053377</v>
+        <v>16.053377000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>901.880000</v>
+        <v>901.88</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.086000</v>
+        <v>-198.08600000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>57802.890060</v>
+        <v>57802.890059999998</v>
       </c>
       <c r="G10" s="1">
-        <v>16.056358</v>
+        <v>16.056357999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>919.198000</v>
+        <v>919.19799999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.505000</v>
+        <v>-167.505</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>57813.099709</v>
+        <v>57813.099709000002</v>
       </c>
       <c r="L10" s="1">
-        <v>16.059194</v>
+        <v>16.059194000000002</v>
       </c>
       <c r="M10" s="1">
-        <v>940.946000</v>
+        <v>940.94600000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.566000</v>
+        <v>-118.566</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>57823.303905</v>
+        <v>57823.303905000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.062029</v>
+        <v>16.062028999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>947.580000</v>
+        <v>947.58</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.605000</v>
+        <v>-102.605</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>57833.810162</v>
+        <v>57833.810162000002</v>
       </c>
       <c r="V10" s="1">
         <v>16.064947</v>
       </c>
       <c r="W10" s="1">
-        <v>954.158000</v>
+        <v>954.15800000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.835600</v>
+        <v>-87.835599999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>57843.936484</v>
+        <v>57843.936483999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.067760</v>
+        <v>16.06776</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.029000</v>
+        <v>961.029</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.444900</v>
+        <v>-76.444900000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>57854.699708</v>
       </c>
       <c r="AF10" s="1">
-        <v>16.070750</v>
+        <v>16.07075</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.695000</v>
+        <v>965.69500000000005</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.422800</v>
+        <v>-74.422799999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>57865.626537</v>
+        <v>57865.626536999996</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.073785</v>
+        <v>16.073785000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.837000</v>
+        <v>972.83699999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.277900</v>
+        <v>-79.277900000000002</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>57876.257289</v>
+        <v>57876.257289000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.076738</v>
+        <v>16.076737999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.906000</v>
+        <v>980.90599999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.964200</v>
+        <v>-90.964200000000005</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>57887.194571</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.079776</v>
+        <v>16.079775999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.744000</v>
+        <v>990.74400000000003</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.790000</v>
+        <v>-108.79</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>57898.311441</v>
+        <v>57898.311440999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.082864</v>
+        <v>16.082864000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.002000</v>
+        <v>999.00199999999995</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.530000</v>
+        <v>-124.53</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>57909.679709</v>
+        <v>57909.679709000004</v>
       </c>
       <c r="BE10" s="1">
         <v>16.086022</v>
       </c>
       <c r="BF10" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.784000</v>
+        <v>-196.78399999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>57920.836458</v>
+        <v>57920.836457999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>16.089121</v>
+        <v>16.089120999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.520000</v>
+        <v>1105.52</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.286000</v>
+        <v>-313.286</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>57931.878160</v>
+        <v>57931.87816</v>
       </c>
       <c r="BO10" s="1">
         <v>16.092188</v>
       </c>
       <c r="BP10" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-495.472000</v>
+        <v>-495.47199999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>57942.313523</v>
+        <v>57942.313522999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.095087</v>
+        <v>16.095086999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1337.650000</v>
+        <v>1337.65</v>
       </c>
       <c r="BV10" s="1">
-        <v>-694.424000</v>
+        <v>-694.42399999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>57953.257753</v>
+        <v>57953.257752999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.098127</v>
+        <v>16.098127000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1474.490000</v>
+        <v>1474.49</v>
       </c>
       <c r="CA10" s="1">
-        <v>-905.152000</v>
+        <v>-905.15200000000004</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>57965.136405</v>
+        <v>57965.136404999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.101427</v>
+        <v>16.101427000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1829.470000</v>
+        <v>1829.47</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1403.610000</v>
+        <v>-1403.61</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>57792.820280</v>
+        <v>57792.82028</v>
       </c>
       <c r="B11" s="1">
-        <v>16.053561</v>
+        <v>16.053560999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>901.737000</v>
+        <v>901.73699999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.159000</v>
+        <v>-198.15899999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>57803.264538</v>
+        <v>57803.264538000003</v>
       </c>
       <c r="G11" s="1">
         <v>16.056462</v>
       </c>
       <c r="H11" s="1">
-        <v>918.814000</v>
+        <v>918.81399999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.228000</v>
+        <v>-167.22800000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>57813.444925</v>
+        <v>57813.444925000003</v>
       </c>
       <c r="L11" s="1">
-        <v>16.059290</v>
+        <v>16.059290000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>941.107000</v>
+        <v>941.10699999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.615000</v>
+        <v>-118.61499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>57823.653584</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.062126</v>
+        <v>16.062125999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>947.575000</v>
+        <v>947.57500000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.595000</v>
+        <v>-102.595</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>57834.153393</v>
+        <v>57834.153393000001</v>
       </c>
       <c r="V11" s="1">
-        <v>16.065043</v>
+        <v>16.065042999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>953.900000</v>
+        <v>953.9</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.816000</v>
+        <v>-87.816000000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>57844.363540</v>
+        <v>57844.363539999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.067879</v>
+        <v>16.067879000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.110000</v>
+        <v>961.11</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.479800</v>
+        <v>-76.479799999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>57855.127229</v>
+        <v>57855.127228999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.070869</v>
+        <v>16.070868999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.672000</v>
+        <v>965.67200000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.378200</v>
+        <v>-74.378200000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>57865.902312</v>
+        <v>57865.902311999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.073862</v>
+        <v>16.073861999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.860000</v>
+        <v>972.86</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.281400</v>
+        <v>-79.281400000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>57876.620362</v>
+        <v>57876.620362000001</v>
       </c>
       <c r="AP11" s="1">
         <v>16.076839</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.897000</v>
+        <v>980.89700000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.007300</v>
+        <v>-91.007300000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>57887.560123</v>
+        <v>57887.560123000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.079878</v>
+        <v>16.079878000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.755000</v>
+        <v>990.755</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.797000</v>
+        <v>-108.797</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>57898.669057</v>
+        <v>57898.669056999999</v>
       </c>
       <c r="AZ11" s="1">
         <v>16.082964</v>
       </c>
       <c r="BA11" s="1">
-        <v>998.998000</v>
+        <v>998.99800000000005</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.533000</v>
+        <v>-124.533</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>57910.399937</v>
+        <v>57910.399937000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>16.086222</v>
+        <v>16.086221999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1037.950000</v>
+        <v>1037.95</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.761000</v>
+        <v>-196.761</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>57921.603040</v>
+        <v>57921.603040000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.089334</v>
+        <v>16.089334000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.510000</v>
+        <v>1105.51</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.250000</v>
+        <v>-313.25</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>57932.252640</v>
+        <v>57932.252639999999</v>
       </c>
       <c r="BO11" s="1">
         <v>16.092292</v>
       </c>
       <c r="BP11" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-495.523000</v>
+        <v>-495.52300000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>57942.746498</v>
       </c>
       <c r="BT11" s="1">
-        <v>16.095207</v>
+        <v>16.095206999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1337.610000</v>
+        <v>1337.61</v>
       </c>
       <c r="BV11" s="1">
-        <v>-694.409000</v>
+        <v>-694.40899999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>57953.716818</v>
+        <v>57953.716818000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.098255</v>
+        <v>16.098255000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1474.330000</v>
+        <v>1474.33</v>
       </c>
       <c r="CA11" s="1">
-        <v>-905.181000</v>
+        <v>-905.18100000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>57965.992995</v>
+        <v>57965.992995000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.101665</v>
+        <v>16.101665000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.390000</v>
+        <v>1830.39</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1404.270000</v>
+        <v>-1404.27</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>57793.180376</v>
+        <v>57793.180375999997</v>
       </c>
       <c r="B12" s="1">
-        <v>16.053661</v>
+        <v>16.053661000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>901.905000</v>
+        <v>901.90499999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.155000</v>
+        <v>-198.155</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>57803.610778</v>
+        <v>57803.610778000002</v>
       </c>
       <c r="G12" s="1">
         <v>16.056559</v>
       </c>
       <c r="H12" s="1">
-        <v>918.996000</v>
+        <v>918.99599999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.152000</v>
+        <v>-167.15199999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>57813.787164</v>
+        <v>57813.787164000001</v>
       </c>
       <c r="L12" s="1">
-        <v>16.059385</v>
+        <v>16.059384999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>941.134000</v>
+        <v>941.13400000000001</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.565000</v>
+        <v>-118.565</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>57824.000815</v>
+        <v>57824.000814999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.062222</v>
+        <v>16.062221999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>947.622000</v>
+        <v>947.62199999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.585000</v>
+        <v>-102.58499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>57834.581473</v>
+        <v>57834.581472999998</v>
       </c>
       <c r="V12" s="1">
-        <v>16.065162</v>
+        <v>16.065162000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.029000</v>
+        <v>954.029</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.788500</v>
+        <v>-87.788499999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>57844.632869</v>
+        <v>57844.632869000001</v>
       </c>
       <c r="AA12" s="1">
         <v>16.067954</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.015000</v>
+        <v>961.01499999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.570600</v>
+        <v>-76.570599999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>57855.398566</v>
+        <v>57855.398566000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.070944</v>
+        <v>16.070944000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.727000</v>
+        <v>965.72699999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.425700</v>
+        <v>-74.425700000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>57866.248519</v>
+        <v>57866.248519000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.073958</v>
+        <v>16.073958000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.865000</v>
+        <v>972.86500000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.279200</v>
+        <v>-79.279200000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>57876.977481</v>
+        <v>57876.977481000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.076938</v>
+        <v>16.076937999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.897000</v>
+        <v>980.89700000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.984600</v>
+        <v>-90.9846</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>57887.925674</v>
+        <v>57887.925673999998</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.079979</v>
+        <v>16.079979000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.738000</v>
+        <v>990.73800000000006</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.787000</v>
+        <v>-108.78700000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>57899.388726</v>
+        <v>57899.388725999997</v>
       </c>
       <c r="AZ12" s="1">
         <v>16.083164</v>
       </c>
       <c r="BA12" s="1">
-        <v>998.992000</v>
+        <v>998.99199999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.536000</v>
+        <v>-124.536</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>57910.763966</v>
+        <v>57910.763965999999</v>
       </c>
       <c r="BE12" s="1">
         <v>16.086323</v>
       </c>
       <c r="BF12" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.763000</v>
+        <v>-196.76300000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>57921.980505</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.089439</v>
+        <v>16.089438999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.520000</v>
+        <v>1105.52</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.278000</v>
+        <v>-313.27800000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>57932.674773</v>
+        <v>57932.674772999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.092410</v>
+        <v>16.092410000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1215.160000</v>
+        <v>1215.1600000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-495.476000</v>
+        <v>-495.476</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>57943.490498</v>
+        <v>57943.490497999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.095414</v>
+        <v>16.095414000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1337.590000</v>
+        <v>1337.59</v>
       </c>
       <c r="BV12" s="1">
-        <v>-694.372000</v>
+        <v>-694.37199999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>57954.473908</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.098465</v>
+        <v>16.098465000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1474.340000</v>
+        <v>1474.34</v>
       </c>
       <c r="CA12" s="1">
-        <v>-905.248000</v>
+        <v>-905.24800000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>57966.216691</v>
+        <v>57966.216691000001</v>
       </c>
       <c r="CD12" s="1">
         <v>16.101727</v>
       </c>
       <c r="CE12" s="1">
-        <v>1830.580000</v>
+        <v>1830.58</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1404.660000</v>
+        <v>-1404.66</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>57793.534024</v>
       </c>
       <c r="B13" s="1">
-        <v>16.053759</v>
+        <v>16.053758999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>901.923000</v>
+        <v>901.923</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.108000</v>
+        <v>-198.108</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>57803.960458</v>
+        <v>57803.960458000001</v>
       </c>
       <c r="G13" s="1">
         <v>16.056656</v>
       </c>
       <c r="H13" s="1">
-        <v>919.186000</v>
+        <v>919.18600000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.028000</v>
+        <v>-167.02799999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>57814.202844</v>
+        <v>57814.202843999999</v>
       </c>
       <c r="L13" s="1">
-        <v>16.059501</v>
+        <v>16.059501000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>941.125000</v>
+        <v>941.125</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.583000</v>
+        <v>-118.583</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>57824.422384</v>
+        <v>57824.422383999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.062340</v>
+        <v>16.062339999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>947.614000</v>
+        <v>947.61400000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.584000</v>
+        <v>-102.584</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>57834.846318</v>
+        <v>57834.846318000004</v>
       </c>
       <c r="V13" s="1">
-        <v>16.065235</v>
+        <v>16.065235000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>953.998000</v>
+        <v>953.99800000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.896500</v>
+        <v>-87.896500000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>57845.204291</v>
+        <v>57845.204291000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.068112</v>
+        <v>16.068111999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.076000</v>
+        <v>961.07600000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.479100</v>
+        <v>-76.479100000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>57855.740774</v>
+        <v>57855.740773999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.071039</v>
+        <v>16.071038999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.703000</v>
+        <v>965.70299999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.425500</v>
+        <v>-74.4255</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>57866.599192</v>
+        <v>57866.599192000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>16.074055</v>
+        <v>16.074055000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.865000</v>
+        <v>972.86500000000001</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.275200</v>
+        <v>-79.275199999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>57877.700680</v>
+        <v>57877.700680000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.077139</v>
+        <v>16.077138999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.911000</v>
+        <v>980.91099999999994</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.992900</v>
+        <v>-90.992900000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>57888.652809</v>
+        <v>57888.652808999999</v>
       </c>
       <c r="AU13" s="1">
         <v>16.080181</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.754000</v>
+        <v>990.75400000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.789000</v>
+        <v>-108.789</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>57899.745835</v>
+        <v>57899.745835000002</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.083263</v>
+        <v>16.083262999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.008000</v>
+        <v>999.00800000000004</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.519000</v>
+        <v>-124.51900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>57911.123564</v>
+        <v>57911.123564000001</v>
       </c>
       <c r="BE13" s="1">
         <v>16.086423</v>
       </c>
       <c r="BF13" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.766000</v>
+        <v>-196.76599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>57922.356001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>16.089543</v>
+        <v>16.089542999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.530000</v>
+        <v>1105.53</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.277000</v>
+        <v>-313.27699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>57933.381536</v>
+        <v>57933.381536000001</v>
       </c>
       <c r="BO13" s="1">
         <v>16.092606</v>
       </c>
       <c r="BP13" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-495.517000</v>
+        <v>-495.517</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>57943.616513</v>
+        <v>57943.616513000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.095449</v>
+        <v>16.095448999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1337.540000</v>
+        <v>1337.54</v>
       </c>
       <c r="BV13" s="1">
-        <v>-694.306000</v>
+        <v>-694.30600000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>57954.616273</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.098505</v>
+        <v>16.098504999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1474.430000</v>
+        <v>1474.43</v>
       </c>
       <c r="CA13" s="1">
-        <v>-905.153000</v>
+        <v>-905.15300000000002</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>57966.737525</v>
+        <v>57966.737524999997</v>
       </c>
       <c r="CD13" s="1">
         <v>16.101872</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.800000</v>
+        <v>1829.8</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1403.490000</v>
+        <v>-1403.49</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>57793.867336</v>
+        <v>57793.867336000003</v>
       </c>
       <c r="B14" s="1">
-        <v>16.053852</v>
+        <v>16.053851999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>901.640000</v>
+        <v>901.64</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.129000</v>
+        <v>-198.12899999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>57804.384010</v>
+        <v>57804.384010000002</v>
       </c>
       <c r="G14" s="1">
         <v>16.056773</v>
       </c>
       <c r="H14" s="1">
-        <v>918.632000</v>
+        <v>918.63199999999995</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.183000</v>
+        <v>-167.18299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>57814.482092</v>
+        <v>57814.482091999998</v>
       </c>
       <c r="L14" s="1">
-        <v>16.059578</v>
+        <v>16.059577999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>941.050000</v>
+        <v>941.05</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.659000</v>
+        <v>-118.65900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>57824.703614</v>
+        <v>57824.703613999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.062418</v>
+        <v>16.062418000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>947.650000</v>
+        <v>947.65</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.592000</v>
+        <v>-102.592</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>57835.187552</v>
+        <v>57835.187552000003</v>
       </c>
       <c r="V14" s="1">
-        <v>16.065330</v>
+        <v>16.065329999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>953.999000</v>
+        <v>953.99900000000002</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.844300</v>
+        <v>-87.844300000000004</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>57845.560883</v>
+        <v>57845.560882999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.068211</v>
+        <v>16.068211000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.096000</v>
+        <v>961.096</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.505400</v>
+        <v>-76.505399999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>57856.086486</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.071135</v>
+        <v>16.071135000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.720000</v>
+        <v>965.72</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.396200</v>
+        <v>-74.396199999999993</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>57867.296071</v>
+        <v>57867.296070999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.074249</v>
+        <v>16.074248999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.873000</v>
+        <v>972.87300000000005</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.282600</v>
+        <v>-79.282600000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>57878.060286</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.077239</v>
+        <v>16.077238999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.895000</v>
+        <v>980.89499999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.000000</v>
+        <v>-91</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>57889.017867</v>
+        <v>57889.017867000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.080283</v>
+        <v>16.080283000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.726000</v>
+        <v>990.726</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.803000</v>
+        <v>-108.803</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>57900.100970</v>
+        <v>57900.10097</v>
       </c>
       <c r="AZ14" s="1">
         <v>16.083361</v>
       </c>
       <c r="BA14" s="1">
-        <v>998.988000</v>
+        <v>998.98800000000006</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.530000</v>
+        <v>-124.53</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>57911.801131</v>
       </c>
       <c r="BE14" s="1">
-        <v>16.086611</v>
+        <v>16.086611000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1037.950000</v>
+        <v>1037.95</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.752000</v>
+        <v>-196.75200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>57923.037964</v>
+        <v>57923.037964000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.089733</v>
+        <v>16.089732999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.510000</v>
+        <v>1105.51</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.276000</v>
+        <v>-313.27600000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>57933.507060</v>
+        <v>57933.507060000004</v>
       </c>
       <c r="BO14" s="1">
         <v>16.092641</v>
       </c>
       <c r="BP14" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-495.500000</v>
+        <v>-495.5</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>57944.030145</v>
+        <v>57944.030144999997</v>
       </c>
       <c r="BT14" s="1">
         <v>16.095564</v>
       </c>
       <c r="BU14" s="1">
-        <v>1337.600000</v>
+        <v>1337.6</v>
       </c>
       <c r="BV14" s="1">
-        <v>-694.258000</v>
+        <v>-694.25800000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>57955.035410</v>
+        <v>57955.035409999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.098621</v>
+        <v>16.098621000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1474.430000</v>
+        <v>1474.43</v>
       </c>
       <c r="CA14" s="1">
-        <v>-905.021000</v>
+        <v>-905.02099999999996</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>57967.253827</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.102015</v>
+        <v>16.102015000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>1829.880000</v>
+        <v>1829.88</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1403.550000</v>
+        <v>-1403.55</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>57794.549368</v>
       </c>
       <c r="B15" s="1">
-        <v>16.054041</v>
+        <v>16.054041000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>901.846000</v>
+        <v>901.846</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.292000</v>
+        <v>-198.292</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>57804.663495</v>
+        <v>57804.663495000001</v>
       </c>
       <c r="G15" s="1">
-        <v>16.056851</v>
+        <v>16.056851000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>918.636000</v>
+        <v>918.63599999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.001000</v>
+        <v>-167.001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>57814.843678</v>
+        <v>57814.843677999997</v>
       </c>
       <c r="L15" s="1">
-        <v>16.059679</v>
+        <v>16.059678999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>941.089000</v>
+        <v>941.08900000000006</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.594000</v>
+        <v>-118.59399999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>57825.053790</v>
+        <v>57825.053789999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.062515</v>
+        <v>16.062515000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>947.588000</v>
+        <v>947.58799999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.651000</v>
+        <v>-102.651</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>57835.532304</v>
       </c>
       <c r="V15" s="1">
-        <v>16.065426</v>
+        <v>16.065425999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>954.069000</v>
+        <v>954.06899999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.759800</v>
+        <v>-87.759799999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>57846.257302</v>
+        <v>57846.257301999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.068405</v>
+        <v>16.068404999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.105000</v>
+        <v>961.10500000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.458500</v>
+        <v>-76.458500000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>57856.770996</v>
+        <v>57856.770995999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.071325</v>
+        <v>16.071325000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.673000</v>
+        <v>965.673</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.364800</v>
+        <v>-74.364800000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>57867.643765</v>
+        <v>57867.643765000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.074345</v>
+        <v>16.074345000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.854000</v>
+        <v>972.85400000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.263400</v>
+        <v>-79.263400000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>57878.420838</v>
+        <v>57878.420837999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.077339</v>
+        <v>16.077338999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.908000</v>
+        <v>980.90800000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.977700</v>
+        <v>-90.977699999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>57889.381434</v>
+        <v>57889.381434000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.080384</v>
+        <v>16.080383999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.732000</v>
+        <v>990.73199999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.796000</v>
+        <v>-108.79600000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>57900.769116</v>
+        <v>57900.769116000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.083547</v>
+        <v>16.083546999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.000000</v>
+        <v>999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.530000</v>
+        <v>-124.53</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>57912.233146</v>
+        <v>57912.233145999999</v>
       </c>
       <c r="BE15" s="1">
         <v>16.086731</v>
       </c>
       <c r="BF15" s="1">
-        <v>1037.940000</v>
+        <v>1037.94</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.761000</v>
+        <v>-196.761</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>57923.147084</v>
+        <v>57923.147083999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.089763</v>
+        <v>16.089763000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.530000</v>
+        <v>1105.53</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.282000</v>
+        <v>-313.28199999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>57933.919198</v>
+        <v>57933.919198000003</v>
       </c>
       <c r="BO15" s="1">
         <v>16.092755</v>
       </c>
       <c r="BP15" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-495.533000</v>
+        <v>-495.53300000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>57944.458193</v>
+        <v>57944.458192999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.095683</v>
+        <v>16.095683000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1337.630000</v>
+        <v>1337.63</v>
       </c>
       <c r="BV15" s="1">
-        <v>-694.238000</v>
+        <v>-694.23800000000006</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>57955.460954</v>
+        <v>57955.460954000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.098739</v>
+        <v>16.098738999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1474.370000</v>
+        <v>1474.37</v>
       </c>
       <c r="CA15" s="1">
-        <v>-905.251000</v>
+        <v>-905.25099999999998</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>57967.804882</v>
+        <v>57967.804881999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.102168</v>
+        <v>16.102167999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1830.490000</v>
+        <v>1830.49</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1404.640000</v>
+        <v>-1404.64</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>57794.893557</v>
+        <v>57794.893557000003</v>
       </c>
       <c r="B16" s="1">
-        <v>16.054137</v>
+        <v>16.054137000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>901.737000</v>
+        <v>901.73699999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.151000</v>
+        <v>-198.15100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>57805.006984</v>
@@ -4094,557 +4510,557 @@
         <v>16.056946</v>
       </c>
       <c r="H16" s="1">
-        <v>918.726000</v>
+        <v>918.726</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.346000</v>
+        <v>-167.346</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>57815.185883</v>
+        <v>57815.185882999998</v>
       </c>
       <c r="L16" s="1">
-        <v>16.059774</v>
+        <v>16.059774000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>941.121000</v>
+        <v>941.12099999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.753000</v>
+        <v>-118.753</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>57825.391565</v>
+        <v>57825.391564999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.062609</v>
+        <v>16.062608999999998</v>
       </c>
       <c r="R16" s="1">
-        <v>947.590000</v>
+        <v>947.59</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.616000</v>
+        <v>-102.616</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>57836.218736</v>
+        <v>57836.218736000003</v>
       </c>
       <c r="V16" s="1">
-        <v>16.065616</v>
+        <v>16.065615999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>954.054000</v>
+        <v>954.05399999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.834600</v>
+        <v>-87.834599999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>57846.606485</v>
+        <v>57846.606484999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>16.068502</v>
+        <v>16.068501999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.055000</v>
+        <v>961.05499999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.525500</v>
+        <v>-76.525499999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>57857.114200</v>
+        <v>57857.114200000004</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.071421</v>
+        <v>16.071421000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.686000</v>
+        <v>965.68600000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.351200</v>
+        <v>-74.351200000000006</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>57867.991957</v>
+        <v>57867.991956999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.074442</v>
+        <v>16.074442000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.861000</v>
+        <v>972.86099999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.271200</v>
+        <v>-79.271199999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>57879.094903</v>
+        <v>57879.094902999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.077526</v>
+        <v>16.077525999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.898000</v>
+        <v>980.89800000000002</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.982300</v>
+        <v>-90.982299999999995</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>57890.063960</v>
+        <v>57890.063959999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.080573</v>
+        <v>16.080573000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.714000</v>
+        <v>990.71400000000006</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.789000</v>
+        <v>-108.789</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>57901.178777</v>
+        <v>57901.178777000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>16.083661</v>
+        <v>16.083660999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.006000</v>
+        <v>999.00599999999997</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.536000</v>
+        <v>-124.536</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>57912.596218</v>
+        <v>57912.596217999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.086832</v>
+        <v>16.086832000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.774000</v>
+        <v>-196.774</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>57923.507677</v>
+        <v>57923.507677000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.089863</v>
+        <v>16.089863000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.500000</v>
+        <v>1105.5</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.263000</v>
+        <v>-313.26299999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>57934.314045</v>
+        <v>57934.314044999999</v>
       </c>
       <c r="BO16" s="1">
         <v>16.092865</v>
       </c>
       <c r="BP16" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-495.475000</v>
+        <v>-495.47500000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>57944.883759</v>
+        <v>57944.883758999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.095801</v>
+        <v>16.095801000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1337.540000</v>
+        <v>1337.54</v>
       </c>
       <c r="BV16" s="1">
-        <v>-694.172000</v>
+        <v>-694.17200000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>57955.892962</v>
+        <v>57955.892961999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.098859</v>
+        <v>16.098859000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1474.510000</v>
+        <v>1474.51</v>
       </c>
       <c r="CA16" s="1">
-        <v>-905.158000</v>
+        <v>-905.15800000000002</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>57968.336097</v>
+        <v>57968.336096999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.102316</v>
+        <v>16.102315999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1829.740000</v>
+        <v>1829.74</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1403.560000</v>
+        <v>-1403.56</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>57795.235797</v>
+        <v>57795.235797000001</v>
       </c>
       <c r="B17" s="1">
-        <v>16.054232</v>
+        <v>16.054231999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>901.837000</v>
+        <v>901.83699999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.122000</v>
+        <v>-198.12200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>57805.354679</v>
+        <v>57805.354678999996</v>
       </c>
       <c r="G17" s="1">
         <v>16.057043</v>
       </c>
       <c r="H17" s="1">
-        <v>918.909000</v>
+        <v>918.90899999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.116000</v>
+        <v>-167.11600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>57815.876842</v>
+        <v>57815.876841999998</v>
       </c>
       <c r="L17" s="1">
-        <v>16.059966</v>
+        <v>16.059965999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>941.124000</v>
+        <v>941.12400000000002</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.651000</v>
+        <v>-118.651</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>57826.098860</v>
+        <v>57826.098859999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.062805</v>
+        <v>16.062805000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>947.606000</v>
+        <v>947.60599999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.603000</v>
+        <v>-102.60299999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>57836.562463</v>
+        <v>57836.562463000002</v>
       </c>
       <c r="V17" s="1">
-        <v>16.065712</v>
+        <v>16.065712000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>953.993000</v>
+        <v>953.99300000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.795100</v>
+        <v>-87.795100000000005</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>57846.955137</v>
+        <v>57846.955136999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.068599</v>
+        <v>16.068598999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.989000</v>
+        <v>960.98900000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.428000</v>
+        <v>-76.427999999999997</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>57857.459908</v>
+        <v>57857.459907999997</v>
       </c>
       <c r="AF17" s="1">
         <v>16.071517</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.725000</v>
+        <v>965.72500000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.444800</v>
+        <v>-74.444800000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>57868.645685</v>
+        <v>57868.645685000003</v>
       </c>
       <c r="AK17" s="1">
         <v>16.074624</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.857000</v>
+        <v>972.85699999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.255800</v>
+        <v>-79.255799999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>57879.521462</v>
+        <v>57879.521461999997</v>
       </c>
       <c r="AP17" s="1">
         <v>16.077645</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.890000</v>
+        <v>980.89</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.985900</v>
+        <v>-90.985900000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>57890.476140</v>
+        <v>57890.476139999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.080688</v>
+        <v>16.080687999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.735000</v>
+        <v>990.73500000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.798000</v>
+        <v>-108.798</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>57901.566187</v>
+        <v>57901.566186999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.083768</v>
+        <v>16.083767999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>998.990000</v>
+        <v>998.99</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.535000</v>
+        <v>-124.535</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>57912.958265</v>
+        <v>57912.958265000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.086933</v>
+        <v>16.086932999999998</v>
       </c>
       <c r="BF17" s="1">
-        <v>1037.950000</v>
+        <v>1037.95</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.751000</v>
+        <v>-196.751</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>57923.887611</v>
+        <v>57923.887610999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>16.089969</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.520000</v>
+        <v>1105.52</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.296000</v>
+        <v>-313.29599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>57934.734657</v>
+        <v>57934.734657000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.092982</v>
+        <v>16.092981999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-495.503000</v>
+        <v>-495.50299999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>57945.288028</v>
+        <v>57945.288028000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.095913</v>
+        <v>16.095912999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1337.580000</v>
+        <v>1337.58</v>
       </c>
       <c r="BV17" s="1">
-        <v>-694.169000</v>
+        <v>-694.16899999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>57956.325472</v>
+        <v>57956.325471999997</v>
       </c>
       <c r="BY17" s="1">
         <v>16.098979</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1474.460000</v>
+        <v>1474.46</v>
       </c>
       <c r="CA17" s="1">
-        <v>-905.158000</v>
+        <v>-905.15800000000002</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>57968.852961</v>
+        <v>57968.852960999997</v>
       </c>
       <c r="CD17" s="1">
         <v>16.102459</v>
       </c>
       <c r="CE17" s="1">
-        <v>1828.840000</v>
+        <v>1828.84</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1404.320000</v>
+        <v>-1404.32</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>57795.919813</v>
       </c>
       <c r="B18" s="1">
-        <v>16.054422</v>
+        <v>16.054421999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>901.968000</v>
+        <v>901.96799999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.242000</v>
+        <v>-198.24199999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>57806.042663</v>
       </c>
       <c r="G18" s="1">
-        <v>16.057234</v>
+        <v>16.057234000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>919.581000</v>
+        <v>919.58100000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.891000</v>
+        <v>-167.89099999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>57816.221561</v>
+        <v>57816.221560999998</v>
       </c>
       <c r="L18" s="1">
-        <v>16.060062</v>
+        <v>16.060061999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>941.095000</v>
+        <v>941.09500000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.684000</v>
+        <v>-118.684</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>57826.445565</v>
+        <v>57826.445565000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.062902</v>
+        <v>16.062902000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>947.637000</v>
+        <v>947.63699999999994</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.586000</v>
+        <v>-102.586</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>57836.904702</v>
@@ -4653,148 +5069,148 @@
         <v>16.065807</v>
       </c>
       <c r="W18" s="1">
-        <v>954.032000</v>
+        <v>954.03200000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.855600</v>
+        <v>-87.855599999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>57847.617336</v>
+        <v>57847.617336000003</v>
       </c>
       <c r="AA18" s="1">
         <v>16.068783</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.031000</v>
+        <v>961.03099999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.401500</v>
+        <v>-76.401499999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>57858.122599</v>
+        <v>57858.122599000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>16.071701</v>
+        <v>16.071701000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.696000</v>
+        <v>965.69600000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.474100</v>
+        <v>-74.474100000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>57869.038052</v>
+        <v>57869.038052000004</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.074733</v>
+        <v>16.074732999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.858000</v>
+        <v>972.85799999999995</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.273600</v>
+        <v>-79.273600000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>57879.880069</v>
+        <v>57879.880068999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>16.077744</v>
+        <v>16.077743999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.894000</v>
+        <v>980.89400000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.986500</v>
+        <v>-90.986500000000007</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>57890.843143</v>
+        <v>57890.843142999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.080790</v>
+        <v>16.08079</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.730000</v>
+        <v>990.73</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.805000</v>
+        <v>-108.80500000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>57901.927241</v>
+        <v>57901.927240999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>16.083869</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.013000</v>
+        <v>999.01300000000003</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.545000</v>
+        <v>-124.545</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>57913.394280</v>
+        <v>57913.39428</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.087054</v>
+        <v>16.087053999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1037.940000</v>
+        <v>1037.94</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.731000</v>
+        <v>-196.73099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>57924.319536</v>
+        <v>57924.319536000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.090089</v>
+        <v>16.090088999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.540000</v>
+        <v>1105.54</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.277000</v>
+        <v>-313.27699999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>57935.131932</v>
+        <v>57935.131931999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.093092</v>
+        <v>16.093091999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-495.448000</v>
+        <v>-495.44799999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>57945.700891</v>
@@ -4803,270 +5219,270 @@
         <v>16.096028</v>
       </c>
       <c r="BU18" s="1">
-        <v>1337.540000</v>
+        <v>1337.54</v>
       </c>
       <c r="BV18" s="1">
-        <v>-694.134000</v>
+        <v>-694.13400000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>57956.746613</v>
+        <v>57956.746613000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.099096</v>
+        <v>16.099095999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1474.370000</v>
+        <v>1474.37</v>
       </c>
       <c r="CA18" s="1">
-        <v>-905.125000</v>
+        <v>-905.125</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>57969.372767</v>
+        <v>57969.372767000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>16.102604</v>
+        <v>16.102603999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1830.020000</v>
+        <v>1830.02</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1405.190000</v>
+        <v>-1405.19</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>57796.264996</v>
+        <v>57796.264995999998</v>
       </c>
       <c r="B19" s="1">
-        <v>16.054518</v>
+        <v>16.054518000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>901.779000</v>
+        <v>901.779</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.199000</v>
+        <v>-198.19900000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>57806.389334</v>
       </c>
       <c r="G19" s="1">
-        <v>16.057330</v>
+        <v>16.05733</v>
       </c>
       <c r="H19" s="1">
-        <v>918.829000</v>
+        <v>918.82899999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.297000</v>
+        <v>-167.297</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>57816.566248</v>
+        <v>57816.566248000003</v>
       </c>
       <c r="L19" s="1">
         <v>16.060157</v>
       </c>
       <c r="M19" s="1">
-        <v>941.079000</v>
+        <v>941.07899999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.606000</v>
+        <v>-118.60599999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>57827.117674</v>
+        <v>57827.117674000001</v>
       </c>
       <c r="Q19" s="1">
         <v>16.063088</v>
       </c>
       <c r="R19" s="1">
-        <v>947.647000</v>
+        <v>947.64700000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.618000</v>
+        <v>-102.61799999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>57837.568350</v>
+        <v>57837.568350000001</v>
       </c>
       <c r="V19" s="1">
         <v>16.065991</v>
       </c>
       <c r="W19" s="1">
-        <v>953.987000</v>
+        <v>953.98699999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.792200</v>
+        <v>-87.792199999999994</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>57848.000738</v>
+        <v>57848.000738000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.068889</v>
+        <v>16.068888999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.075000</v>
+        <v>961.07500000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.509400</v>
+        <v>-76.509399999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>57858.499521</v>
+        <v>57858.499520999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.071805</v>
+        <v>16.071805000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.707000</v>
+        <v>965.70699999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.423100</v>
+        <v>-74.423100000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>57869.387205</v>
+        <v>57869.387204999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.074830</v>
+        <v>16.074829999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.857000</v>
+        <v>972.85699999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.275400</v>
+        <v>-79.275400000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>57880.239172</v>
+        <v>57880.239172000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.077844</v>
+        <v>16.077843999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.921000</v>
+        <v>980.92100000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.977400</v>
+        <v>-90.977400000000003</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>57891.208694</v>
+        <v>57891.208694000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.080891</v>
+        <v>16.080891000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.728000</v>
+        <v>990.72799999999995</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.817000</v>
+        <v>-108.81699999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>57902.361240</v>
+        <v>57902.361239999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.083989</v>
+        <v>16.083988999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>998.996000</v>
+        <v>998.99599999999998</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.527000</v>
+        <v>-124.527</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>57913.678988</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.087133</v>
+        <v>16.087133000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1037.970000</v>
+        <v>1037.97</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.751000</v>
+        <v>-196.751</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>57924.633098</v>
+        <v>57924.633097999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>16.090176</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.490000</v>
+        <v>1105.49</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.297000</v>
+        <v>-313.29700000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>57935.552525</v>
+        <v>57935.552524999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.093209</v>
+        <v>16.093209000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-495.497000</v>
+        <v>-495.49700000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>57946.116317</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.096143</v>
+        <v>16.096143000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1337.560000</v>
+        <v>1337.56</v>
       </c>
       <c r="BV19" s="1">
-        <v>-694.088000</v>
+        <v>-694.08799999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>57957.506447</v>
@@ -5075,1238 +5491,1238 @@
         <v>16.099307</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1474.350000</v>
+        <v>1474.35</v>
       </c>
       <c r="CA19" s="1">
-        <v>-905.167000</v>
+        <v>-905.16700000000003</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>57969.891054</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.102748</v>
+        <v>16.102747999999998</v>
       </c>
       <c r="CE19" s="1">
-        <v>1829.400000</v>
+        <v>1829.4</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1405.320000</v>
+        <v>-1405.32</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>57796.606275</v>
+        <v>57796.606274999998</v>
       </c>
       <c r="B20" s="1">
         <v>16.054613</v>
       </c>
       <c r="C20" s="1">
-        <v>901.658000</v>
+        <v>901.65800000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.136000</v>
+        <v>-198.136</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>57806.740534</v>
+        <v>57806.740533999997</v>
       </c>
       <c r="G20" s="1">
-        <v>16.057428</v>
+        <v>16.057428000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>918.231000</v>
+        <v>918.23099999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.402000</v>
+        <v>-167.40199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>57817.227913</v>
+        <v>57817.227913000002</v>
       </c>
       <c r="L20" s="1">
-        <v>16.060341</v>
+        <v>16.060341000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>941.112000</v>
+        <v>941.11199999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.729000</v>
+        <v>-118.729</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>57827.490642</v>
+        <v>57827.490641999997</v>
       </c>
       <c r="Q20" s="1">
-        <v>16.063192</v>
+        <v>16.063192000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>947.600000</v>
+        <v>947.6</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.642000</v>
+        <v>-102.642</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>57837.936413</v>
+        <v>57837.936413000003</v>
       </c>
       <c r="V20" s="1">
-        <v>16.066093</v>
+        <v>16.066092999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>954.004000</v>
+        <v>954.00400000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.845000</v>
+        <v>-87.844999999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>57848.351871</v>
+        <v>57848.351870999999</v>
       </c>
       <c r="AA20" s="1">
         <v>16.068987</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.082000</v>
+        <v>961.08199999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.435600</v>
+        <v>-76.435599999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>57858.840769</v>
+        <v>57858.840769000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>16.071900</v>
+        <v>16.071899999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.757000</v>
+        <v>965.75699999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.508700</v>
+        <v>-74.508700000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>57869.741023</v>
+        <v>57869.741023000002</v>
       </c>
       <c r="AK20" s="1">
         <v>16.074928</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.860000</v>
+        <v>972.86</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.279800</v>
+        <v>-79.279799999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>57880.659780</v>
+        <v>57880.659780000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.077961</v>
+        <v>16.077960999999998</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.919000</v>
+        <v>980.91899999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.965900</v>
+        <v>-90.965900000000005</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>57891.644679</v>
+        <v>57891.644678999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.081012</v>
+        <v>16.081012000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.725000</v>
+        <v>990.72500000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.808000</v>
+        <v>-108.80800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>57902.641975</v>
+        <v>57902.641974999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.084067</v>
+        <v>16.084067000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.005000</v>
+        <v>999.005</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.528000</v>
+        <v>-124.52800000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>57914.038057</v>
+        <v>57914.038056999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.087233</v>
+        <v>16.087233000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1037.950000</v>
+        <v>1037.95</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.726000</v>
+        <v>-196.726</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>57925.033370</v>
+        <v>57925.033369999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>16.090287</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.520000</v>
+        <v>1105.52</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.292000</v>
+        <v>-313.29199999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>57935.945851</v>
+        <v>57935.945850999997</v>
       </c>
       <c r="BO20" s="1">
         <v>16.093318</v>
       </c>
       <c r="BP20" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-495.439000</v>
+        <v>-495.43900000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>57946.553822</v>
+        <v>57946.553822000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.096265</v>
+        <v>16.096264999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1337.640000</v>
+        <v>1337.64</v>
       </c>
       <c r="BV20" s="1">
-        <v>-694.066000</v>
+        <v>-694.06600000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>57957.652775</v>
+        <v>57957.652775000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>16.099348</v>
+        <v>16.099347999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1474.300000</v>
+        <v>1474.3</v>
       </c>
       <c r="CA20" s="1">
-        <v>-905.188000</v>
+        <v>-905.18799999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>57970.441118</v>
+        <v>57970.441118000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.102900</v>
+        <v>16.102900000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1828.790000</v>
+        <v>1828.79</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1404.370000</v>
+        <v>-1404.37</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>57797.262450</v>
+        <v>57797.262450000002</v>
       </c>
       <c r="B21" s="1">
-        <v>16.054795</v>
+        <v>16.054794999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>901.842000</v>
+        <v>901.84199999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.159000</v>
+        <v>-198.15899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>57807.399190</v>
+        <v>57807.399189999996</v>
       </c>
       <c r="G21" s="1">
-        <v>16.057611</v>
+        <v>16.057611000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>919.262000</v>
+        <v>919.26199999999994</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.533000</v>
+        <v>-167.53299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>57817.599912</v>
+        <v>57817.599911999998</v>
       </c>
       <c r="L21" s="1">
         <v>16.060444</v>
       </c>
       <c r="M21" s="1">
-        <v>941.050000</v>
+        <v>941.05</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.580000</v>
+        <v>-118.58</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>57827.841307</v>
+        <v>57827.841307000002</v>
       </c>
       <c r="Q21" s="1">
-        <v>16.063289</v>
+        <v>16.063289000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>947.564000</v>
+        <v>947.56399999999996</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.591000</v>
+        <v>-102.59099999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>57838.279613</v>
+        <v>57838.279612999999</v>
       </c>
       <c r="V21" s="1">
-        <v>16.066189</v>
+        <v>16.066189000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>954.049000</v>
+        <v>954.04899999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.794300</v>
+        <v>-87.794300000000007</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>57848.701056</v>
+        <v>57848.701055999998</v>
       </c>
       <c r="AA21" s="1">
         <v>16.069084</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.037000</v>
+        <v>961.03700000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.535800</v>
+        <v>-76.535799999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>57859.200368</v>
+        <v>57859.200367999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.072000</v>
+        <v>16.071999999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.742000</v>
+        <v>965.74199999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.400100</v>
+        <v>-74.400099999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>57870.177330</v>
+        <v>57870.177329999999</v>
       </c>
       <c r="AK21" s="1">
         <v>16.075049</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.860000</v>
+        <v>972.86</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.274700</v>
+        <v>-79.274699999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>57880.960388</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.078045</v>
+        <v>16.078044999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.896000</v>
+        <v>980.89599999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.992300</v>
+        <v>-90.9923</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>57891.937814</v>
+        <v>57891.937813999997</v>
       </c>
       <c r="AU21" s="1">
         <v>16.081094</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.729000</v>
+        <v>990.72900000000004</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.811000</v>
+        <v>-108.81100000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>57903.000086</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.084167</v>
+        <v>16.084167000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.001000</v>
+        <v>999.00099999999998</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.546000</v>
+        <v>-124.54600000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>57914.399176</v>
+        <v>57914.399175999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>16.087333</v>
+        <v>16.087333000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1037.940000</v>
+        <v>1037.94</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.778000</v>
+        <v>-196.77799999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>57925.783320</v>
+        <v>57925.783320000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.090495</v>
+        <v>16.090495000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.500000</v>
+        <v>1105.5</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.321000</v>
+        <v>-313.32100000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>57936.371915</v>
+        <v>57936.371915000003</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.093437</v>
+        <v>16.093437000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1215.220000</v>
+        <v>1215.22</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-495.479000</v>
+        <v>-495.47899999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>57946.984812</v>
+        <v>57946.984812000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.096385</v>
+        <v>16.096385000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1337.620000</v>
+        <v>1337.62</v>
       </c>
       <c r="BV21" s="1">
-        <v>-694.021000</v>
+        <v>-694.02099999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>57958.076350</v>
+        <v>57958.076350000003</v>
       </c>
       <c r="BY21" s="1">
         <v>16.099466</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1474.460000</v>
+        <v>1474.46</v>
       </c>
       <c r="CA21" s="1">
-        <v>-905.112000</v>
+        <v>-905.11199999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>57970.973326</v>
+        <v>57970.973325999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.103048</v>
+        <v>16.103048000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1829.880000</v>
+        <v>1829.88</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1405.240000</v>
+        <v>-1405.24</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>57797.630978</v>
+        <v>57797.630978000001</v>
       </c>
       <c r="B22" s="1">
         <v>16.054897</v>
       </c>
       <c r="C22" s="1">
-        <v>901.802000</v>
+        <v>901.80200000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.286000</v>
+        <v>-198.286</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>57807.771684</v>
+        <v>57807.771683999999</v>
       </c>
       <c r="G22" s="1">
-        <v>16.057714</v>
+        <v>16.057714000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>918.725000</v>
+        <v>918.72500000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.572000</v>
+        <v>-167.572</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>57817.947111</v>
+        <v>57817.947111000001</v>
       </c>
       <c r="L22" s="1">
-        <v>16.060541</v>
+        <v>16.060541000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>941.033000</v>
+        <v>941.03300000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.609000</v>
+        <v>-118.60899999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>57828.187019</v>
+        <v>57828.187018999997</v>
       </c>
       <c r="Q22" s="1">
         <v>16.063385</v>
       </c>
       <c r="R22" s="1">
-        <v>947.591000</v>
+        <v>947.59100000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.574000</v>
+        <v>-102.574</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>57838.630816</v>
+        <v>57838.630815999997</v>
       </c>
       <c r="V22" s="1">
-        <v>16.066286</v>
+        <v>16.066286000000002</v>
       </c>
       <c r="W22" s="1">
-        <v>953.991000</v>
+        <v>953.99099999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.807800</v>
+        <v>-87.8078</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>57849.137038</v>
+        <v>57849.137038000001</v>
       </c>
       <c r="AA22" s="1">
         <v>16.069205</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.999000</v>
+        <v>960.99900000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.438300</v>
+        <v>-76.438299999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>57859.888351</v>
+        <v>57859.888351000001</v>
       </c>
       <c r="AF22" s="1">
         <v>16.072191</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.676000</v>
+        <v>965.67600000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.315500</v>
+        <v>-74.3155</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>57870.444707</v>
+        <v>57870.444707000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.075124</v>
+        <v>16.075123999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.854000</v>
+        <v>972.85400000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.286800</v>
+        <v>-79.286799999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>57881.320974</v>
+        <v>57881.320974000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.078145</v>
+        <v>16.078144999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.901000</v>
+        <v>980.90099999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.988300</v>
+        <v>-90.988299999999995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>57892.300886</v>
+        <v>57892.300885999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.081195</v>
+        <v>16.081195000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.751000</v>
+        <v>990.75099999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.804000</v>
+        <v>-108.804</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>57903.359687</v>
+        <v>57903.359686999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>16.084267</v>
+        <v>16.084267000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.014000</v>
+        <v>999.01400000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.546000</v>
+        <v>-124.54600000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>57915.124294</v>
+        <v>57915.124294000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.087535</v>
+        <v>16.087534999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.776000</v>
+        <v>-196.77600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>57926.186568</v>
+        <v>57926.186567999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.090607</v>
+        <v>16.090606999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.550000</v>
+        <v>1105.55</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.272000</v>
+        <v>-313.27199999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>57936.767226</v>
+        <v>57936.767226000004</v>
       </c>
       <c r="BO22" s="1">
         <v>16.093546</v>
       </c>
       <c r="BP22" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-495.461000</v>
+        <v>-495.46100000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>57947.393020</v>
+        <v>57947.393020000003</v>
       </c>
       <c r="BT22" s="1">
         <v>16.096498</v>
       </c>
       <c r="BU22" s="1">
-        <v>1337.710000</v>
+        <v>1337.71</v>
       </c>
       <c r="BV22" s="1">
-        <v>-693.987000</v>
+        <v>-693.98699999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>57958.805470</v>
+        <v>57958.805469999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.099668</v>
+        <v>16.099668000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1474.430000</v>
+        <v>1474.43</v>
       </c>
       <c r="CA22" s="1">
-        <v>-905.161000</v>
+        <v>-905.16099999999994</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>57971.809085</v>
+        <v>57971.809085000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.103280</v>
+        <v>16.103280000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.250000</v>
+        <v>1830.25</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1403.940000</v>
+        <v>-1403.94</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>57797.974242</v>
+        <v>57797.974241999997</v>
       </c>
       <c r="B23" s="1">
         <v>16.054993</v>
       </c>
       <c r="C23" s="1">
-        <v>901.730000</v>
+        <v>901.73</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.078000</v>
+        <v>-198.078</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>57808.115908</v>
       </c>
       <c r="G23" s="1">
-        <v>16.057810</v>
+        <v>16.05781</v>
       </c>
       <c r="H23" s="1">
-        <v>918.778000</v>
+        <v>918.77800000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.308000</v>
+        <v>-167.30799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>57818.294347</v>
+        <v>57818.294347000003</v>
       </c>
       <c r="L23" s="1">
         <v>16.060637</v>
       </c>
       <c r="M23" s="1">
-        <v>941.226000</v>
+        <v>941.226</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.547000</v>
+        <v>-118.547</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>57828.606632</v>
+        <v>57828.606632000003</v>
       </c>
       <c r="Q23" s="1">
         <v>16.063502</v>
       </c>
       <c r="R23" s="1">
-        <v>947.602000</v>
+        <v>947.60199999999998</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.588000</v>
+        <v>-102.58799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>57839.068251</v>
+        <v>57839.068250999997</v>
       </c>
       <c r="V23" s="1">
-        <v>16.066408</v>
+        <v>16.066407999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>954.037000</v>
+        <v>954.03700000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.767200</v>
+        <v>-87.767200000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>57849.399958</v>
+        <v>57849.399958000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.069278</v>
+        <v>16.069278000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.076000</v>
+        <v>961.07600000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.451000</v>
+        <v>-76.450999999999993</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>57860.232579</v>
+        <v>57860.232579000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.072287</v>
+        <v>16.072286999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.705000</v>
+        <v>965.70500000000004</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.493500</v>
+        <v>-74.493499999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>57870.790385</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.075220</v>
+        <v>16.075220000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.837000</v>
+        <v>972.83699999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.289600</v>
+        <v>-79.289599999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>57881.683523</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.078245</v>
+        <v>16.078244999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.900000</v>
+        <v>980.9</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.974700</v>
+        <v>-90.974699999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>57893.028046</v>
+        <v>57893.028045999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.081397</v>
+        <v>16.081396999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.738000</v>
+        <v>990.73800000000006</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.775000</v>
+        <v>-108.77500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>57904.080869</v>
+        <v>57904.080868999998</v>
       </c>
       <c r="AZ23" s="1">
         <v>16.084467</v>
       </c>
       <c r="BA23" s="1">
-        <v>998.994000</v>
+        <v>998.99400000000003</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.543000</v>
+        <v>-124.54300000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>57915.484919</v>
+        <v>57915.484919000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.087635</v>
+        <v>16.087634999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1037.960000</v>
+        <v>1037.96</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.767000</v>
+        <v>-196.767</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>57926.559597</v>
+        <v>57926.559596999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.090711</v>
+        <v>16.090710999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.510000</v>
+        <v>1105.51</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.272000</v>
+        <v>-313.27199999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>57937.186876</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.093663</v>
+        <v>16.093662999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-495.477000</v>
+        <v>-495.47699999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>57948.140031</v>
+        <v>57948.140031000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.096706</v>
+        <v>16.096706000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1337.740000</v>
+        <v>1337.74</v>
       </c>
       <c r="BV23" s="1">
-        <v>-693.987000</v>
+        <v>-693.98699999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>57958.939921</v>
+        <v>57958.939920999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.099706</v>
+        <v>16.099706000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1474.500000</v>
+        <v>1474.5</v>
       </c>
       <c r="CA23" s="1">
-        <v>-905.189000</v>
+        <v>-905.18899999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>57972.007485</v>
+        <v>57972.007485000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.103335</v>
+        <v>16.103335000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1829.310000</v>
+        <v>1829.31</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1403.560000</v>
+        <v>-1403.56</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>57798.316449</v>
+        <v>57798.316448999998</v>
       </c>
       <c r="B24" s="1">
-        <v>16.055088</v>
+        <v>16.055088000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>901.830000</v>
+        <v>901.83</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.153000</v>
+        <v>-198.15299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>57808.460660</v>
+        <v>57808.460659999997</v>
       </c>
       <c r="G24" s="1">
-        <v>16.057906</v>
+        <v>16.057905999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>918.736000</v>
+        <v>918.73599999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.970000</v>
+        <v>-166.97</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>57818.717398</v>
+        <v>57818.717398000001</v>
       </c>
       <c r="L24" s="1">
         <v>16.060755</v>
       </c>
       <c r="M24" s="1">
-        <v>941.072000</v>
+        <v>941.072</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.659000</v>
+        <v>-118.65900000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>57828.884920</v>
+        <v>57828.884919999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.063579</v>
+        <v>16.063579000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>947.652000</v>
+        <v>947.65200000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.594000</v>
+        <v>-102.59399999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>57839.333146</v>
+        <v>57839.333145999997</v>
       </c>
       <c r="V24" s="1">
         <v>16.066481</v>
       </c>
       <c r="W24" s="1">
-        <v>953.991000</v>
+        <v>953.99099999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.893500</v>
+        <v>-87.893500000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>57849.750126</v>
+        <v>57849.750125999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.069375</v>
+        <v>16.069375000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.051000</v>
+        <v>961.05100000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.479500</v>
+        <v>-76.479500000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>57860.582224</v>
+        <v>57860.582223999998</v>
       </c>
       <c r="AF24" s="1">
         <v>16.072384</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.658000</v>
+        <v>965.65800000000002</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.437400</v>
+        <v>-74.437399999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>57871.143537</v>
+        <v>57871.143537000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.075318</v>
+        <v>16.075317999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.872000</v>
+        <v>972.87199999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.271300</v>
+        <v>-79.271299999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>57882.403746</v>
+        <v>57882.403746000004</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.078445</v>
+        <v>16.078444999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.906000</v>
+        <v>980.90599999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.965600</v>
+        <v>-90.965599999999995</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>57893.422835</v>
+        <v>57893.422834999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.081506</v>
+        <v>16.081506000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.747000</v>
+        <v>990.74699999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.789000</v>
+        <v>-108.789</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>57904.459849</v>
+        <v>57904.459848999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.084572</v>
+        <v>16.084572000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>998.985000</v>
+        <v>998.98500000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.537000</v>
+        <v>-124.53700000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>57915.850968</v>
+        <v>57915.850967999999</v>
       </c>
       <c r="BE24" s="1">
         <v>16.087736</v>
       </c>
       <c r="BF24" s="1">
-        <v>1037.950000</v>
+        <v>1037.95</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.768000</v>
+        <v>-196.768</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>57927.246518</v>
@@ -6315,270 +6731,270 @@
         <v>16.090902</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.550000</v>
+        <v>1105.55</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.268000</v>
+        <v>-313.26799999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>57937.898136</v>
+        <v>57937.898136000003</v>
       </c>
       <c r="BO24" s="1">
         <v>16.093861</v>
       </c>
       <c r="BP24" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-495.508000</v>
+        <v>-495.50799999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>57948.253581</v>
+        <v>57948.253580999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.096737</v>
+        <v>16.096737000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1337.720000</v>
+        <v>1337.72</v>
       </c>
       <c r="BV24" s="1">
-        <v>-693.943000</v>
+        <v>-693.94299999999998</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>57959.363964</v>
+        <v>57959.363963999996</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.099823</v>
+        <v>16.099823000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1474.430000</v>
+        <v>1474.43</v>
       </c>
       <c r="CA24" s="1">
-        <v>-905.177000</v>
+        <v>-905.17700000000002</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>57972.523819</v>
+        <v>57972.523819000002</v>
       </c>
       <c r="CD24" s="1">
         <v>16.103479</v>
       </c>
       <c r="CE24" s="1">
-        <v>1829.550000</v>
+        <v>1829.55</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1403.770000</v>
+        <v>-1403.77</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>57798.742544</v>
+        <v>57798.742544000001</v>
       </c>
       <c r="B25" s="1">
-        <v>16.055206</v>
+        <v>16.055205999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>901.818000</v>
+        <v>901.81799999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.139000</v>
+        <v>-198.13900000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>57808.892675</v>
+        <v>57808.892675000003</v>
       </c>
       <c r="G25" s="1">
-        <v>16.058026</v>
+        <v>16.058026000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>918.911000</v>
+        <v>918.91099999999994</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.508000</v>
+        <v>-167.50800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>57818.996678</v>
+        <v>57818.996678000003</v>
       </c>
       <c r="L25" s="1">
-        <v>16.060832</v>
+        <v>16.060832000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>941.119000</v>
+        <v>941.11900000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.661000</v>
+        <v>-118.661</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>57829.236056</v>
+        <v>57829.236056000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.063677</v>
+        <v>16.063676999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>947.652000</v>
+        <v>947.65200000000004</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.602000</v>
+        <v>-102.602</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>57839.679324</v>
+        <v>57839.679323999997</v>
       </c>
       <c r="V25" s="1">
         <v>16.066578</v>
       </c>
       <c r="W25" s="1">
-        <v>954.063000</v>
+        <v>954.06299999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.873600</v>
+        <v>-87.873599999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>57850.100764</v>
+        <v>57850.100764000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.069472</v>
+        <v>16.069472000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.054000</v>
+        <v>961.05399999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.426600</v>
+        <v>-76.426599999999993</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>57861.269183</v>
+        <v>57861.269182999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.072575</v>
+        <v>16.072575000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.791000</v>
+        <v>965.79100000000005</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.372800</v>
+        <v>-74.372799999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>57871.835957</v>
+        <v>57871.835957000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.075510</v>
+        <v>16.075510000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.859000</v>
+        <v>972.85900000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.268800</v>
+        <v>-79.268799999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>57882.764305</v>
+        <v>57882.764304999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.078546</v>
+        <v>16.078545999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.905000</v>
+        <v>980.90499999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.992900</v>
+        <v>-90.992900000000006</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>57893.785943</v>
+        <v>57893.785943000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.081607</v>
+        <v>16.081607000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.746000</v>
+        <v>990.74599999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.798000</v>
+        <v>-108.798</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>57904.835286</v>
+        <v>57904.835286000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.084676</v>
+        <v>16.084676000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.010000</v>
+        <v>999.01</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.528000</v>
+        <v>-124.52800000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>57916.508133</v>
+        <v>57916.508133000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.087919</v>
+        <v>16.087918999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1037.950000</v>
+        <v>1037.95</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.757000</v>
+        <v>-196.75700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>57927.716727</v>
+        <v>57927.716726999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.091032</v>
+        <v>16.091031999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.510000</v>
+        <v>1105.51</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.285000</v>
+        <v>-313.28500000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>57938.022136</v>
@@ -6587,150 +7003,150 @@
         <v>16.093895</v>
       </c>
       <c r="BP25" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-495.483000</v>
+        <v>-495.483</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>57948.690058</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.096858</v>
+        <v>16.096858000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1337.800000</v>
+        <v>1337.8</v>
       </c>
       <c r="BV25" s="1">
-        <v>-693.914000</v>
+        <v>-693.91399999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>57959.786061</v>
+        <v>57959.786060999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.099941</v>
+        <v>16.099941000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1474.340000</v>
+        <v>1474.34</v>
       </c>
       <c r="CA25" s="1">
-        <v>-905.196000</v>
+        <v>-905.19600000000003</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>57973.079338</v>
+        <v>57973.079338000003</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.103633</v>
+        <v>16.103632999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1830.070000</v>
+        <v>1830.07</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1403.630000</v>
+        <v>-1403.63</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>57799.019281</v>
+        <v>57799.019281000001</v>
       </c>
       <c r="B26" s="1">
-        <v>16.055283</v>
+        <v>16.055282999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>901.868000</v>
+        <v>901.86800000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.292000</v>
+        <v>-198.292</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>57809.153044</v>
+        <v>57809.153043999999</v>
       </c>
       <c r="G26" s="1">
-        <v>16.058098</v>
+        <v>16.058098000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>918.526000</v>
+        <v>918.52599999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.469000</v>
+        <v>-167.46899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>57819.343350</v>
+        <v>57819.343350000003</v>
       </c>
       <c r="L26" s="1">
-        <v>16.060929</v>
+        <v>16.060929000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>941.001000</v>
+        <v>941.00099999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.535000</v>
+        <v>-118.535</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>57829.583752</v>
+        <v>57829.583751999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.063773</v>
+        <v>16.063773000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>947.622000</v>
+        <v>947.62199999999996</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.612000</v>
+        <v>-102.61199999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>57840.022586</v>
+        <v>57840.022585999999</v>
       </c>
       <c r="V26" s="1">
-        <v>16.066673</v>
+        <v>16.066673000000002</v>
       </c>
       <c r="W26" s="1">
-        <v>953.928000</v>
+        <v>953.928</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.756100</v>
+        <v>-87.756100000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>57850.795660</v>
+        <v>57850.795660000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.069665</v>
+        <v>16.069665000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.022000</v>
+        <v>961.02200000000005</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.437800</v>
+        <v>-76.437799999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>57861.615886</v>
@@ -6739,165 +7155,166 @@
         <v>16.072671</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.702000</v>
+        <v>965.702</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.497300</v>
+        <v>-74.497299999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>57872.187648</v>
+        <v>57872.187647999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.075608</v>
+        <v>16.075607999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.888000</v>
+        <v>972.88800000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.267500</v>
+        <v>-79.267499999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>57883.125393</v>
+        <v>57883.125393000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.078646</v>
+        <v>16.078645999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.903000</v>
+        <v>980.90300000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.988500</v>
+        <v>-90.988500000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>57894.458515</v>
+        <v>57894.458514999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.081794</v>
+        <v>16.081793999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.740000</v>
+        <v>990.74</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.798000</v>
+        <v>-108.798</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>57905.507365</v>
+        <v>57905.507364999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.084863</v>
+        <v>16.084862999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>998.983000</v>
+        <v>998.98299999999995</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.528000</v>
+        <v>-124.52800000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>57916.958500</v>
+        <v>57916.958500000001</v>
       </c>
       <c r="BE26" s="1">
         <v>16.088044</v>
       </c>
       <c r="BF26" s="1">
-        <v>1037.950000</v>
+        <v>1037.95</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.763000</v>
+        <v>-196.76300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>57928.109061</v>
+        <v>57928.109061000003</v>
       </c>
       <c r="BJ26" s="1">
         <v>16.091141</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.540000</v>
+        <v>1105.54</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.284000</v>
+        <v>-313.28399999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>57938.428823</v>
+        <v>57938.428823000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>16.094008</v>
+        <v>16.094007999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-495.517000</v>
+        <v>-495.517</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>57949.103226</v>
+        <v>57949.103225999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.096973</v>
+        <v>16.096972999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1337.840000</v>
+        <v>1337.84</v>
       </c>
       <c r="BV26" s="1">
-        <v>-693.909000</v>
+        <v>-693.90899999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>57960.216091</v>
+        <v>57960.216091000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.100060</v>
+        <v>16.100059999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1474.420000</v>
+        <v>1474.42</v>
       </c>
       <c r="CA26" s="1">
-        <v>-905.130000</v>
+        <v>-905.13</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>57973.607081</v>
+        <v>57973.607081000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.103780</v>
+        <v>16.10378</v>
       </c>
       <c r="CE26" s="1">
-        <v>1828.830000</v>
+        <v>1828.83</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1403.870000</v>
+        <v>-1403.87</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>